--- a/04_Model_Saved/NN_full_v3_BO_test_1/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_test_1/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML.xlsx
@@ -505,16 +505,16 @@
         <v>10.27148578895017</v>
       </c>
       <c r="G2" t="n">
-        <v>318.5789184570312</v>
+        <v>338.7117309570312</v>
       </c>
       <c r="H2" t="n">
-        <v>80.20352935791016</v>
+        <v>76.58686065673828</v>
       </c>
       <c r="I2" t="n">
-        <v>377.7380676269531</v>
+        <v>443.2917175292969</v>
       </c>
       <c r="J2" t="n">
-        <v>337.0131530761719</v>
+        <v>122.0924835205078</v>
       </c>
     </row>
     <row r="3">
@@ -537,16 +537,16 @@
         <v>10.49540628405087</v>
       </c>
       <c r="G3" t="n">
-        <v>348.1005859375</v>
+        <v>363.5515441894531</v>
       </c>
       <c r="H3" t="n">
-        <v>83.02176666259766</v>
+        <v>83.39691162109375</v>
       </c>
       <c r="I3" t="n">
-        <v>405.871826171875</v>
+        <v>467.8063659667969</v>
       </c>
       <c r="J3" t="n">
-        <v>312.4012756347656</v>
+        <v>154.4252014160156</v>
       </c>
     </row>
     <row r="4">
@@ -569,16 +569,16 @@
         <v>11.11292799977388</v>
       </c>
       <c r="G4" t="n">
-        <v>359.7171936035156</v>
+        <v>373.7151794433594</v>
       </c>
       <c r="H4" t="n">
-        <v>84.54098510742188</v>
+        <v>91.84616088867188</v>
       </c>
       <c r="I4" t="n">
-        <v>439.2625122070312</v>
+        <v>493.5941162109375</v>
       </c>
       <c r="J4" t="n">
-        <v>311.1308898925781</v>
+        <v>175.082763671875</v>
       </c>
     </row>
     <row r="5">
@@ -601,16 +601,16 @@
         <v>11.33579528302992</v>
       </c>
       <c r="G5" t="n">
-        <v>380.0131225585938</v>
+        <v>393.0681762695312</v>
       </c>
       <c r="H5" t="n">
-        <v>84.77051544189453</v>
+        <v>110.3453750610352</v>
       </c>
       <c r="I5" t="n">
-        <v>439.2769775390625</v>
+        <v>493.8722534179688</v>
       </c>
       <c r="J5" t="n">
-        <v>311.2644348144531</v>
+        <v>197.2141723632812</v>
       </c>
     </row>
     <row r="6">
@@ -633,16 +633,16 @@
         <v>11.53221857575777</v>
       </c>
       <c r="G6" t="n">
-        <v>407.0938110351562</v>
+        <v>412.5150146484375</v>
       </c>
       <c r="H6" t="n">
-        <v>86.65425109863281</v>
+        <v>124.3803634643555</v>
       </c>
       <c r="I6" t="n">
-        <v>434.8479309082031</v>
+        <v>494.3735046386719</v>
       </c>
       <c r="J6" t="n">
-        <v>311.9353332519531</v>
+        <v>200.8830871582031</v>
       </c>
     </row>
     <row r="7">
@@ -665,16 +665,16 @@
         <v>11.73836346032553</v>
       </c>
       <c r="G7" t="n">
-        <v>272.7127685546875</v>
+        <v>295.6880798339844</v>
       </c>
       <c r="H7" t="n">
-        <v>77.51099395751953</v>
+        <v>59.45613479614258</v>
       </c>
       <c r="I7" t="n">
-        <v>293.0903625488281</v>
+        <v>406.7118225097656</v>
       </c>
       <c r="J7" t="n">
-        <v>369.5034790039062</v>
+        <v>80.14718627929688</v>
       </c>
     </row>
     <row r="8">
@@ -697,16 +697,16 @@
         <v>12.47588443056982</v>
       </c>
       <c r="G8" t="n">
-        <v>293.2359313964844</v>
+        <v>308.9916076660156</v>
       </c>
       <c r="H8" t="n">
-        <v>79.34989166259766</v>
+        <v>57.94075012207031</v>
       </c>
       <c r="I8" t="n">
-        <v>318.5289611816406</v>
+        <v>435.7338562011719</v>
       </c>
       <c r="J8" t="n">
-        <v>353.7642517089844</v>
+        <v>91.4810791015625</v>
       </c>
     </row>
     <row r="9">
@@ -729,16 +729,16 @@
         <v>13.31360035996819</v>
       </c>
       <c r="G9" t="n">
-        <v>309.018310546875</v>
+        <v>316.1080932617188</v>
       </c>
       <c r="H9" t="n">
-        <v>77.43361663818359</v>
+        <v>56.56119537353516</v>
       </c>
       <c r="I9" t="n">
-        <v>356.1842651367188</v>
+        <v>468.3239135742188</v>
       </c>
       <c r="J9" t="n">
-        <v>323.2142639160156</v>
+        <v>108.1292114257812</v>
       </c>
     </row>
     <row r="10">
@@ -761,16 +761,16 @@
         <v>14.04586286313179</v>
       </c>
       <c r="G10" t="n">
-        <v>334.6344909667969</v>
+        <v>326.0031127929688</v>
       </c>
       <c r="H10" t="n">
-        <v>81.87853240966797</v>
+        <v>60.49506378173828</v>
       </c>
       <c r="I10" t="n">
-        <v>389.0348510742188</v>
+        <v>502.8115234375</v>
       </c>
       <c r="J10" t="n">
-        <v>314.6724243164062</v>
+        <v>137.4157409667969</v>
       </c>
     </row>
     <row r="11">
@@ -793,16 +793,16 @@
         <v>14.78596965177877</v>
       </c>
       <c r="G11" t="n">
-        <v>360.7326965332031</v>
+        <v>351.619873046875</v>
       </c>
       <c r="H11" t="n">
-        <v>77.21341705322266</v>
+        <v>72.95032501220703</v>
       </c>
       <c r="I11" t="n">
-        <v>434.7011108398438</v>
+        <v>528.7617797851562</v>
       </c>
       <c r="J11" t="n">
-        <v>305.1160278320312</v>
+        <v>160.5523529052734</v>
       </c>
     </row>
     <row r="12">
@@ -825,16 +825,16 @@
         <v>14.60750023008277</v>
       </c>
       <c r="G12" t="n">
-        <v>394.5596923828125</v>
+        <v>379.2191162109375</v>
       </c>
       <c r="H12" t="n">
-        <v>83.69905090332031</v>
+        <v>100.1324462890625</v>
       </c>
       <c r="I12" t="n">
-        <v>445.7662048339844</v>
+        <v>530.4799194335938</v>
       </c>
       <c r="J12" t="n">
-        <v>301.9439697265625</v>
+        <v>179.9288177490234</v>
       </c>
     </row>
     <row r="13">
@@ -857,16 +857,16 @@
         <v>13.93632017907879</v>
       </c>
       <c r="G13" t="n">
-        <v>469.5347900390625</v>
+        <v>450.8415222167969</v>
       </c>
       <c r="H13" t="n">
-        <v>101.6930389404297</v>
+        <v>117.7414932250977</v>
       </c>
       <c r="I13" t="n">
-        <v>469.8219909667969</v>
+        <v>466.1868896484375</v>
       </c>
       <c r="J13" t="n">
-        <v>340.8151550292969</v>
+        <v>144.4795227050781</v>
       </c>
     </row>
     <row r="14">
@@ -889,16 +889,16 @@
         <v>13.2060787967079</v>
       </c>
       <c r="G14" t="n">
-        <v>240.1879119873047</v>
+        <v>265.9197387695312</v>
       </c>
       <c r="H14" t="n">
-        <v>81.59341430664062</v>
+        <v>69.00616455078125</v>
       </c>
       <c r="I14" t="n">
-        <v>174.9441680908203</v>
+        <v>256.2388305664062</v>
       </c>
       <c r="J14" t="n">
-        <v>423.6331481933594</v>
+        <v>92.85557556152344</v>
       </c>
     </row>
     <row r="15">
@@ -921,16 +921,16 @@
         <v>14.43724685121477</v>
       </c>
       <c r="G15" t="n">
-        <v>253.11474609375</v>
+        <v>281.8106994628906</v>
       </c>
       <c r="H15" t="n">
-        <v>76.74014282226562</v>
+        <v>60.73307037353516</v>
       </c>
       <c r="I15" t="n">
-        <v>219.5532836914062</v>
+        <v>317.7583923339844</v>
       </c>
       <c r="J15" t="n">
-        <v>401.1409301757812</v>
+        <v>79.74714660644531</v>
       </c>
     </row>
     <row r="16">
@@ -953,16 +953,16 @@
         <v>15.77509757365795</v>
       </c>
       <c r="G16" t="n">
-        <v>267.7661743164062</v>
+        <v>297.2481384277344</v>
       </c>
       <c r="H16" t="n">
-        <v>78.19084167480469</v>
+        <v>59.07646560668945</v>
       </c>
       <c r="I16" t="n">
-        <v>264.9122314453125</v>
+        <v>378.7169799804688</v>
       </c>
       <c r="J16" t="n">
-        <v>385.5044555664062</v>
+        <v>89.58465576171875</v>
       </c>
     </row>
     <row r="17">
@@ -985,16 +985,16 @@
         <v>17.01643502058164</v>
       </c>
       <c r="G17" t="n">
-        <v>290.9599609375</v>
+        <v>303.7256164550781</v>
       </c>
       <c r="H17" t="n">
-        <v>76.05512237548828</v>
+        <v>55.37996673583984</v>
       </c>
       <c r="I17" t="n">
-        <v>313.4471435546875</v>
+        <v>445.8988647460938</v>
       </c>
       <c r="J17" t="n">
-        <v>348.5935668945312</v>
+        <v>95.64626312255859</v>
       </c>
     </row>
     <row r="18">
@@ -1017,16 +1017,16 @@
         <v>17.57324774662381</v>
       </c>
       <c r="G18" t="n">
-        <v>305.2378234863281</v>
+        <v>309.4779357910156</v>
       </c>
       <c r="H18" t="n">
-        <v>76.03035736083984</v>
+        <v>52.21125411987305</v>
       </c>
       <c r="I18" t="n">
-        <v>361.6292724609375</v>
+        <v>463.2765197753906</v>
       </c>
       <c r="J18" t="n">
-        <v>338.5187072753906</v>
+        <v>102.8139724731445</v>
       </c>
     </row>
     <row r="19">
@@ -1049,16 +1049,16 @@
         <v>18.2282289394109</v>
       </c>
       <c r="G19" t="n">
-        <v>348.5298767089844</v>
+        <v>330.1634826660156</v>
       </c>
       <c r="H19" t="n">
-        <v>74.51422882080078</v>
+        <v>52.19513320922852</v>
       </c>
       <c r="I19" t="n">
-        <v>412.4131774902344</v>
+        <v>516.74951171875</v>
       </c>
       <c r="J19" t="n">
-        <v>328.0294494628906</v>
+        <v>135.3673400878906</v>
       </c>
     </row>
     <row r="20">
@@ -1081,16 +1081,16 @@
         <v>18.05168677518481</v>
       </c>
       <c r="G20" t="n">
-        <v>392.7412719726562</v>
+        <v>359.5810241699219</v>
       </c>
       <c r="H20" t="n">
-        <v>85.88545227050781</v>
+        <v>71.22087097167969</v>
       </c>
       <c r="I20" t="n">
-        <v>425.4546203613281</v>
+        <v>522.9234619140625</v>
       </c>
       <c r="J20" t="n">
-        <v>326.7903137207031</v>
+        <v>147.2356719970703</v>
       </c>
     </row>
     <row r="21">
@@ -1113,16 +1113,16 @@
         <v>17.30316829702608</v>
       </c>
       <c r="G21" t="n">
-        <v>469.6480102539062</v>
+        <v>432.3106994628906</v>
       </c>
       <c r="H21" t="n">
-        <v>104.0331802368164</v>
+        <v>98.77719879150391</v>
       </c>
       <c r="I21" t="n">
-        <v>462.4458923339844</v>
+        <v>470.7293090820312</v>
       </c>
       <c r="J21" t="n">
-        <v>352.8561706542969</v>
+        <v>119.8838882446289</v>
       </c>
     </row>
     <row r="22">
@@ -1145,16 +1145,16 @@
         <v>15.87142913305469</v>
       </c>
       <c r="G22" t="n">
-        <v>529.9312133789062</v>
+        <v>497.786865234375</v>
       </c>
       <c r="H22" t="n">
-        <v>130.7244415283203</v>
+        <v>111.1091079711914</v>
       </c>
       <c r="I22" t="n">
-        <v>396.8556823730469</v>
+        <v>429.996337890625</v>
       </c>
       <c r="J22" t="n">
-        <v>399.197265625</v>
+        <v>127.2245178222656</v>
       </c>
     </row>
     <row r="23">
@@ -1177,16 +1177,16 @@
         <v>16.2842163689804</v>
       </c>
       <c r="G23" t="n">
-        <v>230.2669982910156</v>
+        <v>262.9252319335938</v>
       </c>
       <c r="H23" t="n">
-        <v>82.89460754394531</v>
+        <v>70.54846954345703</v>
       </c>
       <c r="I23" t="n">
-        <v>143.6289520263672</v>
+        <v>187.7414703369141</v>
       </c>
       <c r="J23" t="n">
-        <v>470.5007019042969</v>
+        <v>97.08486938476562</v>
       </c>
     </row>
     <row r="24">
@@ -1209,16 +1209,16 @@
         <v>17.99859633271077</v>
       </c>
       <c r="G24" t="n">
-        <v>241.1172332763672</v>
+        <v>280.5400085449219</v>
       </c>
       <c r="H24" t="n">
-        <v>77.56262969970703</v>
+        <v>64.19492340087891</v>
       </c>
       <c r="I24" t="n">
-        <v>175.6981048583984</v>
+        <v>239.4571380615234</v>
       </c>
       <c r="J24" t="n">
-        <v>423.22509765625</v>
+        <v>100.3757858276367</v>
       </c>
     </row>
     <row r="25">
@@ -1241,16 +1241,16 @@
         <v>19.53665474474453</v>
       </c>
       <c r="G25" t="n">
-        <v>254.6571655273438</v>
+        <v>284.6801147460938</v>
       </c>
       <c r="H25" t="n">
-        <v>76.57771301269531</v>
+        <v>61.70715713500977</v>
       </c>
       <c r="I25" t="n">
-        <v>227.9669036865234</v>
+        <v>303.5140686035156</v>
       </c>
       <c r="J25" t="n">
-        <v>399.5261535644531</v>
+        <v>111.7106857299805</v>
       </c>
     </row>
     <row r="26">
@@ -1273,16 +1273,16 @@
         <v>21.18080958029204</v>
       </c>
       <c r="G26" t="n">
-        <v>269.8974304199219</v>
+        <v>291.6094970703125</v>
       </c>
       <c r="H26" t="n">
-        <v>74.69645690917969</v>
+        <v>59.86724090576172</v>
       </c>
       <c r="I26" t="n">
-        <v>274.7964477539062</v>
+        <v>379.1528930664062</v>
       </c>
       <c r="J26" t="n">
-        <v>364.6065979003906</v>
+        <v>117.1879043579102</v>
       </c>
     </row>
     <row r="27">
@@ -1305,16 +1305,16 @@
         <v>22.36133238808863</v>
       </c>
       <c r="G27" t="n">
-        <v>297.4840393066406</v>
+        <v>299.4902954101562</v>
       </c>
       <c r="H27" t="n">
-        <v>70.46409606933594</v>
+        <v>53.4025993347168</v>
       </c>
       <c r="I27" t="n">
-        <v>305.7777404785156</v>
+        <v>436.3900146484375</v>
       </c>
       <c r="J27" t="n">
-        <v>343.4751892089844</v>
+        <v>118.5759201049805</v>
       </c>
     </row>
     <row r="28">
@@ -1337,16 +1337,16 @@
         <v>22.25528267810615</v>
       </c>
       <c r="G28" t="n">
-        <v>331.6485595703125</v>
+        <v>311.8190002441406</v>
       </c>
       <c r="H28" t="n">
-        <v>74.27125549316406</v>
+        <v>52.30117797851562</v>
       </c>
       <c r="I28" t="n">
-        <v>360.8745727539062</v>
+        <v>472.2697448730469</v>
       </c>
       <c r="J28" t="n">
-        <v>332.0400085449219</v>
+        <v>134.0514373779297</v>
       </c>
     </row>
     <row r="29">
@@ -1369,16 +1369,16 @@
         <v>22.11853696692908</v>
       </c>
       <c r="G29" t="n">
-        <v>387.7262878417969</v>
+        <v>337.06787109375</v>
       </c>
       <c r="H29" t="n">
-        <v>84.47682189941406</v>
+        <v>66.08566284179688</v>
       </c>
       <c r="I29" t="n">
-        <v>390.556640625</v>
+        <v>496.4170227050781</v>
       </c>
       <c r="J29" t="n">
-        <v>339.9946594238281</v>
+        <v>141.5957794189453</v>
       </c>
     </row>
     <row r="30">
@@ -1401,16 +1401,16 @@
         <v>21.13587239531939</v>
       </c>
       <c r="G30" t="n">
-        <v>475.1513977050781</v>
+        <v>433.2071228027344</v>
       </c>
       <c r="H30" t="n">
-        <v>114.3931274414062</v>
+        <v>82.73725128173828</v>
       </c>
       <c r="I30" t="n">
-        <v>431.9515686035156</v>
+        <v>466.9621887207031</v>
       </c>
       <c r="J30" t="n">
-        <v>364.7767944335938</v>
+        <v>115.643310546875</v>
       </c>
     </row>
     <row r="31">
@@ -1433,16 +1433,16 @@
         <v>19.80061812897557</v>
       </c>
       <c r="G31" t="n">
-        <v>525.4733276367188</v>
+        <v>474.6048583984375</v>
       </c>
       <c r="H31" t="n">
-        <v>128.0913848876953</v>
+        <v>104.7374038696289</v>
       </c>
       <c r="I31" t="n">
-        <v>334.09033203125</v>
+        <v>421.4834594726562</v>
       </c>
       <c r="J31" t="n">
-        <v>417.9235229492188</v>
+        <v>126.3364639282227</v>
       </c>
     </row>
     <row r="32">
@@ -1465,16 +1465,16 @@
         <v>20.55168297688286</v>
       </c>
       <c r="G32" t="n">
-        <v>225.4326019287109</v>
+        <v>264.3713989257812</v>
       </c>
       <c r="H32" t="n">
-        <v>85.59587097167969</v>
+        <v>70.13089752197266</v>
       </c>
       <c r="I32" t="n">
-        <v>111.6268005371094</v>
+        <v>149.2114105224609</v>
       </c>
       <c r="J32" t="n">
-        <v>463.61083984375</v>
+        <v>109.0997009277344</v>
       </c>
     </row>
     <row r="33">
@@ -1497,16 +1497,16 @@
         <v>22.96934284445093</v>
       </c>
       <c r="G33" t="n">
-        <v>234.0577087402344</v>
+        <v>276.3873291015625</v>
       </c>
       <c r="H33" t="n">
-        <v>79.77626037597656</v>
+        <v>67.09988403320312</v>
       </c>
       <c r="I33" t="n">
-        <v>169.9885101318359</v>
+        <v>196.3837432861328</v>
       </c>
       <c r="J33" t="n">
-        <v>446.9397277832031</v>
+        <v>118.0967330932617</v>
       </c>
     </row>
     <row r="34">
@@ -1529,16 +1529,16 @@
         <v>24.40915250803127</v>
       </c>
       <c r="G34" t="n">
-        <v>246.1212768554688</v>
+        <v>280.8211975097656</v>
       </c>
       <c r="H34" t="n">
-        <v>75.35844421386719</v>
+        <v>66.99535369873047</v>
       </c>
       <c r="I34" t="n">
-        <v>209.5965423583984</v>
+        <v>245.0984649658203</v>
       </c>
       <c r="J34" t="n">
-        <v>418.1447448730469</v>
+        <v>123.5457077026367</v>
       </c>
     </row>
     <row r="35">
@@ -1561,16 +1561,16 @@
         <v>26.0811880993595</v>
       </c>
       <c r="G35" t="n">
-        <v>261.9966430664062</v>
+        <v>282.2796325683594</v>
       </c>
       <c r="H35" t="n">
-        <v>74.08842468261719</v>
+        <v>68.65621948242188</v>
       </c>
       <c r="I35" t="n">
-        <v>256.569580078125</v>
+        <v>306.3406372070312</v>
       </c>
       <c r="J35" t="n">
-        <v>387.0810241699219</v>
+        <v>133.8983306884766</v>
       </c>
     </row>
     <row r="36">
@@ -1593,16 +1593,16 @@
         <v>26.87614780904968</v>
       </c>
       <c r="G36" t="n">
-        <v>280.8428649902344</v>
+        <v>281.645751953125</v>
       </c>
       <c r="H36" t="n">
-        <v>68.70832824707031</v>
+        <v>65.1875</v>
       </c>
       <c r="I36" t="n">
-        <v>280.9432373046875</v>
+        <v>381.0676574707031</v>
       </c>
       <c r="J36" t="n">
-        <v>355.571533203125</v>
+        <v>142.1669006347656</v>
       </c>
     </row>
     <row r="37">
@@ -1625,16 +1625,16 @@
         <v>27.16629873490772</v>
       </c>
       <c r="G37" t="n">
-        <v>316.2803039550781</v>
+        <v>284.4790954589844</v>
       </c>
       <c r="H37" t="n">
-        <v>73.39729309082031</v>
+        <v>62.53417205810547</v>
       </c>
       <c r="I37" t="n">
-        <v>339.9612121582031</v>
+        <v>427.2955322265625</v>
       </c>
       <c r="J37" t="n">
-        <v>346.0743713378906</v>
+        <v>156.5808258056641</v>
       </c>
     </row>
     <row r="38">
@@ -1657,16 +1657,16 @@
         <v>27.25598473560972</v>
       </c>
       <c r="G38" t="n">
-        <v>374.7221984863281</v>
+        <v>320.7644653320312</v>
       </c>
       <c r="H38" t="n">
-        <v>85.74966430664062</v>
+        <v>74.81861877441406</v>
       </c>
       <c r="I38" t="n">
-        <v>346.6204833984375</v>
+        <v>467.076416015625</v>
       </c>
       <c r="J38" t="n">
-        <v>355.4165344238281</v>
+        <v>144.366943359375</v>
       </c>
     </row>
     <row r="39">
@@ -1689,16 +1689,16 @@
         <v>26.04628332899345</v>
       </c>
       <c r="G39" t="n">
-        <v>465.4802551269531</v>
+        <v>407.8136596679688</v>
       </c>
       <c r="H39" t="n">
-        <v>114.746711730957</v>
+        <v>81.58827209472656</v>
       </c>
       <c r="I39" t="n">
-        <v>364.9265441894531</v>
+        <v>453.853759765625</v>
       </c>
       <c r="J39" t="n">
-        <v>381.1450805664062</v>
+        <v>118.0506820678711</v>
       </c>
     </row>
     <row r="40">
@@ -1721,16 +1721,16 @@
         <v>23.96978635149335</v>
       </c>
       <c r="G40" t="n">
-        <v>523.1195068359375</v>
+        <v>462.0910339355469</v>
       </c>
       <c r="H40" t="n">
-        <v>126.2287673950195</v>
+        <v>93.32478332519531</v>
       </c>
       <c r="I40" t="n">
-        <v>294.6340026855469</v>
+        <v>427.9904479980469</v>
       </c>
       <c r="J40" t="n">
-        <v>425.6382446289062</v>
+        <v>127.5391540527344</v>
       </c>
     </row>
     <row r="41">
@@ -1753,16 +1753,16 @@
         <v>25.6116837653232</v>
       </c>
       <c r="G41" t="n">
-        <v>218.7066955566406</v>
+        <v>268.9345703125</v>
       </c>
       <c r="H41" t="n">
-        <v>79.79244232177734</v>
+        <v>72.02475738525391</v>
       </c>
       <c r="I41" t="n">
-        <v>78.84243774414062</v>
+        <v>105.1967926025391</v>
       </c>
       <c r="J41" t="n">
-        <v>472.1107482910156</v>
+        <v>124.695686340332</v>
       </c>
     </row>
     <row r="42">
@@ -1785,16 +1785,16 @@
         <v>28.41067839248494</v>
       </c>
       <c r="G42" t="n">
-        <v>231.0973968505859</v>
+        <v>277.5604553222656</v>
       </c>
       <c r="H42" t="n">
-        <v>79.05233764648438</v>
+        <v>70.82530975341797</v>
       </c>
       <c r="I42" t="n">
-        <v>135.8768920898438</v>
+        <v>149.3107147216797</v>
       </c>
       <c r="J42" t="n">
-        <v>442.3772277832031</v>
+        <v>131.5744018554688</v>
       </c>
     </row>
     <row r="43">
@@ -1817,16 +1817,16 @@
         <v>30.68040031937237</v>
       </c>
       <c r="G43" t="n">
-        <v>239.8315887451172</v>
+        <v>276.2946166992188</v>
       </c>
       <c r="H43" t="n">
-        <v>76.16616821289062</v>
+        <v>71.37660980224609</v>
       </c>
       <c r="I43" t="n">
-        <v>181.0296936035156</v>
+        <v>197.0010070800781</v>
       </c>
       <c r="J43" t="n">
-        <v>423.9902038574219</v>
+        <v>143.6362762451172</v>
       </c>
     </row>
     <row r="44">
@@ -1849,16 +1849,16 @@
         <v>32.34762367758118</v>
       </c>
       <c r="G44" t="n">
-        <v>253.6065368652344</v>
+        <v>276.5515747070312</v>
       </c>
       <c r="H44" t="n">
-        <v>70.57946014404297</v>
+        <v>71.12187957763672</v>
       </c>
       <c r="I44" t="n">
-        <v>244.0599517822266</v>
+        <v>245.969482421875</v>
       </c>
       <c r="J44" t="n">
-        <v>405.2535095214844</v>
+        <v>142.4181823730469</v>
       </c>
     </row>
     <row r="45">
@@ -1881,16 +1881,16 @@
         <v>33.26712421235609</v>
       </c>
       <c r="G45" t="n">
-        <v>277.8377990722656</v>
+        <v>282.24560546875</v>
       </c>
       <c r="H45" t="n">
-        <v>71.31153869628906</v>
+        <v>74.45831298828125</v>
       </c>
       <c r="I45" t="n">
-        <v>264.6484069824219</v>
+        <v>311.1889953613281</v>
       </c>
       <c r="J45" t="n">
-        <v>369.4603576660156</v>
+        <v>146.3565216064453</v>
       </c>
     </row>
     <row r="46">
@@ -1913,16 +1913,16 @@
         <v>33.39925272231932</v>
       </c>
       <c r="G46" t="n">
-        <v>311.5268859863281</v>
+        <v>280.3348693847656</v>
       </c>
       <c r="H46" t="n">
-        <v>76.96554565429688</v>
+        <v>72.41445922851562</v>
       </c>
       <c r="I46" t="n">
-        <v>296.7696838378906</v>
+        <v>394.7074890136719</v>
       </c>
       <c r="J46" t="n">
-        <v>348.3339538574219</v>
+        <v>158.77099609375</v>
       </c>
     </row>
     <row r="47">
@@ -1945,16 +1945,16 @@
         <v>32.83385481517335</v>
       </c>
       <c r="G47" t="n">
-        <v>362.3299865722656</v>
+        <v>314.7548217773438</v>
       </c>
       <c r="H47" t="n">
-        <v>88.19182586669922</v>
+        <v>79.08623504638672</v>
       </c>
       <c r="I47" t="n">
-        <v>333.4521484375</v>
+        <v>436.0009765625</v>
       </c>
       <c r="J47" t="n">
-        <v>359.92578125</v>
+        <v>156.3247680664062</v>
       </c>
     </row>
     <row r="48">
@@ -1977,16 +1977,16 @@
         <v>31.22587875804939</v>
       </c>
       <c r="G48" t="n">
-        <v>468.1527099609375</v>
+        <v>398.1679382324219</v>
       </c>
       <c r="H48" t="n">
-        <v>113.6633758544922</v>
+        <v>81.30622100830078</v>
       </c>
       <c r="I48" t="n">
-        <v>307.4320373535156</v>
+        <v>453.4498901367188</v>
       </c>
       <c r="J48" t="n">
-        <v>390.1120910644531</v>
+        <v>131.1344757080078</v>
       </c>
     </row>
     <row r="49">
@@ -2009,16 +2009,16 @@
         <v>28.00050845971687</v>
       </c>
       <c r="G49" t="n">
-        <v>525.3289794921875</v>
+        <v>446.0341796875</v>
       </c>
       <c r="H49" t="n">
-        <v>131.3817749023438</v>
+        <v>89.50698089599609</v>
       </c>
       <c r="I49" t="n">
-        <v>257.4728698730469</v>
+        <v>437.2963562011719</v>
       </c>
       <c r="J49" t="n">
-        <v>449.0439758300781</v>
+        <v>135.6902313232422</v>
       </c>
     </row>
     <row r="50">
@@ -2041,16 +2041,16 @@
         <v>32.75859992753161</v>
       </c>
       <c r="G50" t="n">
-        <v>222.5460968017578</v>
+        <v>272.4358215332031</v>
       </c>
       <c r="H50" t="n">
-        <v>78.36347961425781</v>
+        <v>71.10978698730469</v>
       </c>
       <c r="I50" t="n">
-        <v>108.4699935913086</v>
+        <v>71.01012420654297</v>
       </c>
       <c r="J50" t="n">
-        <v>479.8157958984375</v>
+        <v>140.5815582275391</v>
       </c>
     </row>
     <row r="51">
@@ -2073,16 +2073,16 @@
         <v>35.60454595063857</v>
       </c>
       <c r="G51" t="n">
-        <v>229.0525970458984</v>
+        <v>278.8544921875</v>
       </c>
       <c r="H51" t="n">
-        <v>78.18386077880859</v>
+        <v>69.64152526855469</v>
       </c>
       <c r="I51" t="n">
-        <v>119.4263687133789</v>
+        <v>107.6042938232422</v>
       </c>
       <c r="J51" t="n">
-        <v>448.4221496582031</v>
+        <v>151.6378326416016</v>
       </c>
     </row>
     <row r="52">
@@ -2105,16 +2105,16 @@
         <v>38.13811789539464</v>
       </c>
       <c r="G52" t="n">
-        <v>239.568359375</v>
+        <v>287.1551208496094</v>
       </c>
       <c r="H52" t="n">
-        <v>74.89458465576172</v>
+        <v>70.22208404541016</v>
       </c>
       <c r="I52" t="n">
-        <v>150.1106872558594</v>
+        <v>142.7590484619141</v>
       </c>
       <c r="J52" t="n">
-        <v>433.3154602050781</v>
+        <v>156.9106903076172</v>
       </c>
     </row>
     <row r="53">
@@ -2137,16 +2137,16 @@
         <v>39.1380055059179</v>
       </c>
       <c r="G53" t="n">
-        <v>252.1946563720703</v>
+        <v>283.4786682128906</v>
       </c>
       <c r="H53" t="n">
-        <v>73.67900085449219</v>
+        <v>75.15473937988281</v>
       </c>
       <c r="I53" t="n">
-        <v>205.3883666992188</v>
+        <v>190.0349578857422</v>
       </c>
       <c r="J53" t="n">
-        <v>409.6916198730469</v>
+        <v>165.0508728027344</v>
       </c>
     </row>
     <row r="54">
@@ -2169,16 +2169,16 @@
         <v>40.17007780104868</v>
       </c>
       <c r="G54" t="n">
-        <v>274.8133544921875</v>
+        <v>291.3952331542969</v>
       </c>
       <c r="H54" t="n">
-        <v>73.81348419189453</v>
+        <v>82.07369232177734</v>
       </c>
       <c r="I54" t="n">
-        <v>225.4455718994141</v>
+        <v>259.0089721679688</v>
       </c>
       <c r="J54" t="n">
-        <v>369.7619934082031</v>
+        <v>158.7160797119141</v>
       </c>
     </row>
     <row r="55">
@@ -2201,16 +2201,16 @@
         <v>40.31777520333784</v>
       </c>
       <c r="G55" t="n">
-        <v>302.0296936035156</v>
+        <v>287.1314086914062</v>
       </c>
       <c r="H55" t="n">
-        <v>75.31198120117188</v>
+        <v>80.41975402832031</v>
       </c>
       <c r="I55" t="n">
-        <v>273.0032958984375</v>
+        <v>346.1529541015625</v>
       </c>
       <c r="J55" t="n">
-        <v>364.2799682617188</v>
+        <v>164.6729278564453</v>
       </c>
     </row>
     <row r="56">
@@ -2233,16 +2233,16 @@
         <v>38.89328689858721</v>
       </c>
       <c r="G56" t="n">
-        <v>359.7831726074219</v>
+        <v>329.1343688964844</v>
       </c>
       <c r="H56" t="n">
-        <v>87.91006469726562</v>
+        <v>89.86906433105469</v>
       </c>
       <c r="I56" t="n">
-        <v>304.3528747558594</v>
+        <v>419.09765625</v>
       </c>
       <c r="J56" t="n">
-        <v>363.8060302734375</v>
+        <v>163.7725830078125</v>
       </c>
     </row>
     <row r="57">
@@ -2265,16 +2265,16 @@
         <v>36.03490394546852</v>
       </c>
       <c r="G57" t="n">
-        <v>448.7275390625</v>
+        <v>390.6973266601562</v>
       </c>
       <c r="H57" t="n">
-        <v>108.2805328369141</v>
+        <v>80.79804992675781</v>
       </c>
       <c r="I57" t="n">
-        <v>305.1850891113281</v>
+        <v>447.2470703125</v>
       </c>
       <c r="J57" t="n">
-        <v>377.2547302246094</v>
+        <v>148.9158325195312</v>
       </c>
     </row>
     <row r="58">
@@ -2297,16 +2297,16 @@
         <v>33.0417017672229</v>
       </c>
       <c r="G58" t="n">
-        <v>521.626220703125</v>
+        <v>426.3187866210938</v>
       </c>
       <c r="H58" t="n">
-        <v>125.8028106689453</v>
+        <v>86.20563507080078</v>
       </c>
       <c r="I58" t="n">
-        <v>246.9702606201172</v>
+        <v>454.6096801757812</v>
       </c>
       <c r="J58" t="n">
-        <v>431.3549499511719</v>
+        <v>142.9835968017578</v>
       </c>
     </row>
     <row r="59">
@@ -2329,16 +2329,16 @@
         <v>43.98768298598323</v>
       </c>
       <c r="G59" t="n">
-        <v>232.1511383056641</v>
+        <v>287.4766540527344</v>
       </c>
       <c r="H59" t="n">
-        <v>75.24135589599609</v>
+        <v>70.85646057128906</v>
       </c>
       <c r="I59" t="n">
-        <v>115.681526184082</v>
+        <v>51.25484848022461</v>
       </c>
       <c r="J59" t="n">
-        <v>437.7137756347656</v>
+        <v>172.0311889648438</v>
       </c>
     </row>
     <row r="60">
@@ -2361,16 +2361,16 @@
         <v>45.7006317110727</v>
       </c>
       <c r="G60" t="n">
-        <v>246.6632232666016</v>
+        <v>291.5317687988281</v>
       </c>
       <c r="H60" t="n">
-        <v>78.87151336669922</v>
+        <v>78.44671630859375</v>
       </c>
       <c r="I60" t="n">
-        <v>156.3532867431641</v>
+        <v>91.37358856201172</v>
       </c>
       <c r="J60" t="n">
-        <v>423.7287292480469</v>
+        <v>176.6608276367188</v>
       </c>
     </row>
     <row r="61">
@@ -2393,16 +2393,16 @@
         <v>46.67965674781412</v>
       </c>
       <c r="G61" t="n">
-        <v>259.5606079101562</v>
+        <v>290.9271240234375</v>
       </c>
       <c r="H61" t="n">
-        <v>76.81703186035156</v>
+        <v>84.03884124755859</v>
       </c>
       <c r="I61" t="n">
-        <v>162.7435607910156</v>
+        <v>150.9181060791016</v>
       </c>
       <c r="J61" t="n">
-        <v>408.8809509277344</v>
+        <v>180.1957092285156</v>
       </c>
     </row>
     <row r="62">
@@ -2425,16 +2425,16 @@
         <v>47.53914448671719</v>
       </c>
       <c r="G62" t="n">
-        <v>272.2267761230469</v>
+        <v>302.4706726074219</v>
       </c>
       <c r="H62" t="n">
-        <v>73.40419006347656</v>
+        <v>91.88163757324219</v>
       </c>
       <c r="I62" t="n">
-        <v>209.3761291503906</v>
+        <v>203.6657409667969</v>
       </c>
       <c r="J62" t="n">
-        <v>404.4980773925781</v>
+        <v>181.2110290527344</v>
       </c>
     </row>
     <row r="63">
@@ -2457,16 +2457,16 @@
         <v>47.07121651777462</v>
       </c>
       <c r="G63" t="n">
-        <v>304.4715881347656</v>
+        <v>302.7492370605469</v>
       </c>
       <c r="H63" t="n">
-        <v>77.63624572753906</v>
+        <v>94.63709259033203</v>
       </c>
       <c r="I63" t="n">
-        <v>247.2492523193359</v>
+        <v>301.0133361816406</v>
       </c>
       <c r="J63" t="n">
-        <v>353.2665710449219</v>
+        <v>176.6553649902344</v>
       </c>
     </row>
     <row r="64">
@@ -2489,16 +2489,16 @@
         <v>45.67156598130153</v>
       </c>
       <c r="G64" t="n">
-        <v>347.0470886230469</v>
+        <v>340.8201904296875</v>
       </c>
       <c r="H64" t="n">
-        <v>86.89515686035156</v>
+        <v>100.0940551757812</v>
       </c>
       <c r="I64" t="n">
-        <v>294.0501708984375</v>
+        <v>392.6642150878906</v>
       </c>
       <c r="J64" t="n">
-        <v>358.2080383300781</v>
+        <v>179.9140777587891</v>
       </c>
     </row>
     <row r="65">
@@ -2521,16 +2521,16 @@
         <v>42.51104340916319</v>
       </c>
       <c r="G65" t="n">
-        <v>429.6431884765625</v>
+        <v>387.2219848632812</v>
       </c>
       <c r="H65" t="n">
-        <v>107.7710266113281</v>
+        <v>83.69736480712891</v>
       </c>
       <c r="I65" t="n">
-        <v>275.2225036621094</v>
+        <v>428.8148193359375</v>
       </c>
       <c r="J65" t="n">
-        <v>379.4809265136719</v>
+        <v>166.329345703125</v>
       </c>
     </row>
     <row r="66">
@@ -2553,16 +2553,16 @@
         <v>54.37577254606605</v>
       </c>
       <c r="G66" t="n">
-        <v>255.3313293457031</v>
+        <v>305.6134948730469</v>
       </c>
       <c r="H66" t="n">
-        <v>77.55832672119141</v>
+        <v>80.53399658203125</v>
       </c>
       <c r="I66" t="n">
-        <v>103.8269958496094</v>
+        <v>46.25156784057617</v>
       </c>
       <c r="J66" t="n">
-        <v>417.2030029296875</v>
+        <v>185.5792694091797</v>
       </c>
     </row>
     <row r="67">
@@ -2585,16 +2585,16 @@
         <v>55.07062752917076</v>
       </c>
       <c r="G67" t="n">
-        <v>266.1215515136719</v>
+        <v>309.184326171875</v>
       </c>
       <c r="H67" t="n">
-        <v>76.19673156738281</v>
+        <v>92.77183532714844</v>
       </c>
       <c r="I67" t="n">
-        <v>123.0867080688477</v>
+        <v>93.95011901855469</v>
       </c>
       <c r="J67" t="n">
-        <v>399.5747680664062</v>
+        <v>186.7626190185547</v>
       </c>
     </row>
     <row r="68">
@@ -2617,16 +2617,16 @@
         <v>54.82432856758766</v>
       </c>
       <c r="G68" t="n">
-        <v>286.3367919921875</v>
+        <v>317.893310546875</v>
       </c>
       <c r="H68" t="n">
-        <v>78.38890838623047</v>
+        <v>101.8115768432617</v>
       </c>
       <c r="I68" t="n">
-        <v>173.3810577392578</v>
+        <v>154.34326171875</v>
       </c>
       <c r="J68" t="n">
-        <v>396.35009765625</v>
+        <v>185.9801483154297</v>
       </c>
     </row>
     <row r="69">
@@ -2649,16 +2649,16 @@
         <v>54.18769809434324</v>
       </c>
       <c r="G69" t="n">
-        <v>303.2617492675781</v>
+        <v>330.4185180664062</v>
       </c>
       <c r="H69" t="n">
-        <v>74.95045471191406</v>
+        <v>112.240348815918</v>
       </c>
       <c r="I69" t="n">
-        <v>195.2521057128906</v>
+        <v>252.7033538818359</v>
       </c>
       <c r="J69" t="n">
-        <v>379.7859191894531</v>
+        <v>200.6327056884766</v>
       </c>
     </row>
     <row r="70">
@@ -2681,16 +2681,16 @@
         <v>51.347187815424</v>
       </c>
       <c r="G70" t="n">
-        <v>343.3664245605469</v>
+        <v>350.1421813964844</v>
       </c>
       <c r="H70" t="n">
-        <v>87.45259094238281</v>
+        <v>107.9496383666992</v>
       </c>
       <c r="I70" t="n">
-        <v>243.7103118896484</v>
+        <v>357.8206481933594</v>
       </c>
       <c r="J70" t="n">
-        <v>366.0602111816406</v>
+        <v>200.1489868164062</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_v3_BO_test_1/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_test_1/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML.xlsx
@@ -505,16 +505,16 @@
         <v>10.27148578895017</v>
       </c>
       <c r="G2" t="n">
-        <v>338.7117309570312</v>
+        <v>320.8492736816406</v>
       </c>
       <c r="H2" t="n">
-        <v>76.58686065673828</v>
+        <v>64.23658752441406</v>
       </c>
       <c r="I2" t="n">
-        <v>443.2917175292969</v>
+        <v>459.6986083984375</v>
       </c>
       <c r="J2" t="n">
-        <v>122.0924835205078</v>
+        <v>91.46543121337891</v>
       </c>
     </row>
     <row r="3">
@@ -537,16 +537,16 @@
         <v>10.49540628405087</v>
       </c>
       <c r="G3" t="n">
-        <v>363.5515441894531</v>
+        <v>329.9293212890625</v>
       </c>
       <c r="H3" t="n">
-        <v>83.39691162109375</v>
+        <v>67.86893463134766</v>
       </c>
       <c r="I3" t="n">
-        <v>467.8063659667969</v>
+        <v>476.2263488769531</v>
       </c>
       <c r="J3" t="n">
-        <v>154.4252014160156</v>
+        <v>112.2566146850586</v>
       </c>
     </row>
     <row r="4">
@@ -569,16 +569,16 @@
         <v>11.11292799977388</v>
       </c>
       <c r="G4" t="n">
-        <v>373.7151794433594</v>
+        <v>339.2262878417969</v>
       </c>
       <c r="H4" t="n">
-        <v>91.84616088867188</v>
+        <v>74.94853973388672</v>
       </c>
       <c r="I4" t="n">
-        <v>493.5941162109375</v>
+        <v>486.96337890625</v>
       </c>
       <c r="J4" t="n">
-        <v>175.082763671875</v>
+        <v>127.732795715332</v>
       </c>
     </row>
     <row r="5">
@@ -601,16 +601,16 @@
         <v>11.33579528302992</v>
       </c>
       <c r="G5" t="n">
-        <v>393.0681762695312</v>
+        <v>353.86181640625</v>
       </c>
       <c r="H5" t="n">
-        <v>110.3453750610352</v>
+        <v>84.59251403808594</v>
       </c>
       <c r="I5" t="n">
-        <v>493.8722534179688</v>
+        <v>507.841552734375</v>
       </c>
       <c r="J5" t="n">
-        <v>197.2141723632812</v>
+        <v>128.5149383544922</v>
       </c>
     </row>
     <row r="6">
@@ -633,16 +633,16 @@
         <v>11.53221857575777</v>
       </c>
       <c r="G6" t="n">
-        <v>412.5150146484375</v>
+        <v>375.4892578125</v>
       </c>
       <c r="H6" t="n">
-        <v>124.3803634643555</v>
+        <v>103.6589584350586</v>
       </c>
       <c r="I6" t="n">
-        <v>494.3735046386719</v>
+        <v>506.6420288085938</v>
       </c>
       <c r="J6" t="n">
-        <v>200.8830871582031</v>
+        <v>130.3686218261719</v>
       </c>
     </row>
     <row r="7">
@@ -665,16 +665,16 @@
         <v>11.73836346032553</v>
       </c>
       <c r="G7" t="n">
-        <v>295.6880798339844</v>
+        <v>284.8538818359375</v>
       </c>
       <c r="H7" t="n">
-        <v>59.45613479614258</v>
+        <v>69.24909973144531</v>
       </c>
       <c r="I7" t="n">
-        <v>406.7118225097656</v>
+        <v>411.9558410644531</v>
       </c>
       <c r="J7" t="n">
-        <v>80.14718627929688</v>
+        <v>83.19856262207031</v>
       </c>
     </row>
     <row r="8">
@@ -697,16 +697,16 @@
         <v>12.47588443056982</v>
       </c>
       <c r="G8" t="n">
-        <v>308.9916076660156</v>
+        <v>297.1416015625</v>
       </c>
       <c r="H8" t="n">
-        <v>57.94075012207031</v>
+        <v>68.39614868164062</v>
       </c>
       <c r="I8" t="n">
-        <v>435.7338562011719</v>
+        <v>445.0660400390625</v>
       </c>
       <c r="J8" t="n">
-        <v>91.4810791015625</v>
+        <v>88.41773986816406</v>
       </c>
     </row>
     <row r="9">
@@ -729,16 +729,16 @@
         <v>13.31360035996819</v>
       </c>
       <c r="G9" t="n">
-        <v>316.1080932617188</v>
+        <v>305.7406311035156</v>
       </c>
       <c r="H9" t="n">
-        <v>56.56119537353516</v>
+        <v>64.9498291015625</v>
       </c>
       <c r="I9" t="n">
-        <v>468.3239135742188</v>
+        <v>464.7983703613281</v>
       </c>
       <c r="J9" t="n">
-        <v>108.1292114257812</v>
+        <v>94.11952972412109</v>
       </c>
     </row>
     <row r="10">
@@ -761,16 +761,16 @@
         <v>14.04586286313179</v>
       </c>
       <c r="G10" t="n">
-        <v>326.0031127929688</v>
+        <v>303.785400390625</v>
       </c>
       <c r="H10" t="n">
-        <v>60.49506378173828</v>
+        <v>60.44120025634766</v>
       </c>
       <c r="I10" t="n">
-        <v>502.8115234375</v>
+        <v>475.3606262207031</v>
       </c>
       <c r="J10" t="n">
-        <v>137.4157409667969</v>
+        <v>98.26397705078125</v>
       </c>
     </row>
     <row r="11">
@@ -793,16 +793,16 @@
         <v>14.78596965177877</v>
       </c>
       <c r="G11" t="n">
-        <v>351.619873046875</v>
+        <v>320.0104675292969</v>
       </c>
       <c r="H11" t="n">
-        <v>72.95032501220703</v>
+        <v>69.93171691894531</v>
       </c>
       <c r="I11" t="n">
-        <v>528.7617797851562</v>
+        <v>485.6421813964844</v>
       </c>
       <c r="J11" t="n">
-        <v>160.5523529052734</v>
+        <v>94.01584625244141</v>
       </c>
     </row>
     <row r="12">
@@ -825,16 +825,16 @@
         <v>14.60750023008277</v>
       </c>
       <c r="G12" t="n">
-        <v>379.2191162109375</v>
+        <v>359.8533020019531</v>
       </c>
       <c r="H12" t="n">
-        <v>100.1324462890625</v>
+        <v>98.55782318115234</v>
       </c>
       <c r="I12" t="n">
-        <v>530.4799194335938</v>
+        <v>481.9547424316406</v>
       </c>
       <c r="J12" t="n">
-        <v>179.9288177490234</v>
+        <v>92.425537109375</v>
       </c>
     </row>
     <row r="13">
@@ -857,16 +857,16 @@
         <v>13.93632017907879</v>
       </c>
       <c r="G13" t="n">
-        <v>450.8415222167969</v>
+        <v>447.8950500488281</v>
       </c>
       <c r="H13" t="n">
-        <v>117.7414932250977</v>
+        <v>134.4733123779297</v>
       </c>
       <c r="I13" t="n">
-        <v>466.1868896484375</v>
+        <v>487.0044860839844</v>
       </c>
       <c r="J13" t="n">
-        <v>144.4795227050781</v>
+        <v>104.920295715332</v>
       </c>
     </row>
     <row r="14">
@@ -889,16 +889,16 @@
         <v>13.2060787967079</v>
       </c>
       <c r="G14" t="n">
-        <v>265.9197387695312</v>
+        <v>257.7588500976562</v>
       </c>
       <c r="H14" t="n">
-        <v>69.00616455078125</v>
+        <v>69.88743591308594</v>
       </c>
       <c r="I14" t="n">
-        <v>256.2388305664062</v>
+        <v>258.1366882324219</v>
       </c>
       <c r="J14" t="n">
-        <v>92.85557556152344</v>
+        <v>92.35253143310547</v>
       </c>
     </row>
     <row r="15">
@@ -921,16 +921,16 @@
         <v>14.43724685121477</v>
       </c>
       <c r="G15" t="n">
-        <v>281.8106994628906</v>
+        <v>267.6817626953125</v>
       </c>
       <c r="H15" t="n">
-        <v>60.73307037353516</v>
+        <v>68.20559692382812</v>
       </c>
       <c r="I15" t="n">
-        <v>317.7583923339844</v>
+        <v>327.1757507324219</v>
       </c>
       <c r="J15" t="n">
-        <v>79.74714660644531</v>
+        <v>107.4850158691406</v>
       </c>
     </row>
     <row r="16">
@@ -953,16 +953,16 @@
         <v>15.77509757365795</v>
       </c>
       <c r="G16" t="n">
-        <v>297.2481384277344</v>
+        <v>283.0571594238281</v>
       </c>
       <c r="H16" t="n">
-        <v>59.07646560668945</v>
+        <v>67.90023040771484</v>
       </c>
       <c r="I16" t="n">
-        <v>378.7169799804688</v>
+        <v>389.92822265625</v>
       </c>
       <c r="J16" t="n">
-        <v>89.58465576171875</v>
+        <v>105.1762771606445</v>
       </c>
     </row>
     <row r="17">
@@ -985,16 +985,16 @@
         <v>17.01643502058164</v>
       </c>
       <c r="G17" t="n">
-        <v>303.7256164550781</v>
+        <v>287.4410400390625</v>
       </c>
       <c r="H17" t="n">
-        <v>55.37996673583984</v>
+        <v>66.71065521240234</v>
       </c>
       <c r="I17" t="n">
-        <v>445.8988647460938</v>
+        <v>445.6820373535156</v>
       </c>
       <c r="J17" t="n">
-        <v>95.64626312255859</v>
+        <v>98.12376403808594</v>
       </c>
     </row>
     <row r="18">
@@ -1017,16 +1017,16 @@
         <v>17.57324774662381</v>
       </c>
       <c r="G18" t="n">
-        <v>309.4779357910156</v>
+        <v>287.6973571777344</v>
       </c>
       <c r="H18" t="n">
-        <v>52.21125411987305</v>
+        <v>62.70224380493164</v>
       </c>
       <c r="I18" t="n">
-        <v>463.2765197753906</v>
+        <v>467.4935302734375</v>
       </c>
       <c r="J18" t="n">
-        <v>102.8139724731445</v>
+        <v>92.97245788574219</v>
       </c>
     </row>
     <row r="19">
@@ -1049,16 +1049,16 @@
         <v>18.2282289394109</v>
       </c>
       <c r="G19" t="n">
-        <v>330.1634826660156</v>
+        <v>304.1210327148438</v>
       </c>
       <c r="H19" t="n">
-        <v>52.19513320922852</v>
+        <v>61.63986587524414</v>
       </c>
       <c r="I19" t="n">
-        <v>516.74951171875</v>
+        <v>484.4006652832031</v>
       </c>
       <c r="J19" t="n">
-        <v>135.3673400878906</v>
+        <v>84.00030517578125</v>
       </c>
     </row>
     <row r="20">
@@ -1081,16 +1081,16 @@
         <v>18.05168677518481</v>
       </c>
       <c r="G20" t="n">
-        <v>359.5810241699219</v>
+        <v>346.3557739257812</v>
       </c>
       <c r="H20" t="n">
-        <v>71.22087097167969</v>
+        <v>91.39640808105469</v>
       </c>
       <c r="I20" t="n">
-        <v>522.9234619140625</v>
+        <v>490.2235412597656</v>
       </c>
       <c r="J20" t="n">
-        <v>147.2356719970703</v>
+        <v>87.63492584228516</v>
       </c>
     </row>
     <row r="21">
@@ -1113,16 +1113,16 @@
         <v>17.30316829702608</v>
       </c>
       <c r="G21" t="n">
-        <v>432.3106994628906</v>
+        <v>434.9777526855469</v>
       </c>
       <c r="H21" t="n">
-        <v>98.77719879150391</v>
+        <v>136.4365844726562</v>
       </c>
       <c r="I21" t="n">
-        <v>470.7293090820312</v>
+        <v>487.1031799316406</v>
       </c>
       <c r="J21" t="n">
-        <v>119.8838882446289</v>
+        <v>109.1510238647461</v>
       </c>
     </row>
     <row r="22">
@@ -1145,16 +1145,16 @@
         <v>15.87142913305469</v>
       </c>
       <c r="G22" t="n">
-        <v>497.786865234375</v>
+        <v>505.0693664550781</v>
       </c>
       <c r="H22" t="n">
-        <v>111.1091079711914</v>
+        <v>129.4279937744141</v>
       </c>
       <c r="I22" t="n">
-        <v>429.996337890625</v>
+        <v>435.0173034667969</v>
       </c>
       <c r="J22" t="n">
-        <v>127.2245178222656</v>
+        <v>142.1040954589844</v>
       </c>
     </row>
     <row r="23">
@@ -1177,16 +1177,16 @@
         <v>16.2842163689804</v>
       </c>
       <c r="G23" t="n">
-        <v>262.9252319335938</v>
+        <v>255.2361145019531</v>
       </c>
       <c r="H23" t="n">
-        <v>70.54846954345703</v>
+        <v>72.84324645996094</v>
       </c>
       <c r="I23" t="n">
-        <v>187.7414703369141</v>
+        <v>200.3973693847656</v>
       </c>
       <c r="J23" t="n">
-        <v>97.08486938476562</v>
+        <v>96.21208190917969</v>
       </c>
     </row>
     <row r="24">
@@ -1209,16 +1209,16 @@
         <v>17.99859633271077</v>
       </c>
       <c r="G24" t="n">
-        <v>280.5400085449219</v>
+        <v>266.1918640136719</v>
       </c>
       <c r="H24" t="n">
-        <v>64.19492340087891</v>
+        <v>67.66131591796875</v>
       </c>
       <c r="I24" t="n">
-        <v>239.4571380615234</v>
+        <v>244.8392944335938</v>
       </c>
       <c r="J24" t="n">
-        <v>100.3757858276367</v>
+        <v>106.9127044677734</v>
       </c>
     </row>
     <row r="25">
@@ -1241,16 +1241,16 @@
         <v>19.53665474474453</v>
       </c>
       <c r="G25" t="n">
-        <v>284.6801147460938</v>
+        <v>271.3286437988281</v>
       </c>
       <c r="H25" t="n">
-        <v>61.70715713500977</v>
+        <v>66.76381683349609</v>
       </c>
       <c r="I25" t="n">
-        <v>303.5140686035156</v>
+        <v>316.9670715332031</v>
       </c>
       <c r="J25" t="n">
-        <v>111.7106857299805</v>
+        <v>120.1720886230469</v>
       </c>
     </row>
     <row r="26">
@@ -1273,16 +1273,16 @@
         <v>21.18080958029204</v>
       </c>
       <c r="G26" t="n">
-        <v>291.6094970703125</v>
+        <v>275.3362121582031</v>
       </c>
       <c r="H26" t="n">
-        <v>59.86724090576172</v>
+        <v>67.20635986328125</v>
       </c>
       <c r="I26" t="n">
-        <v>379.1528930664062</v>
+        <v>390.8984680175781</v>
       </c>
       <c r="J26" t="n">
-        <v>117.1879043579102</v>
+        <v>113.2687759399414</v>
       </c>
     </row>
     <row r="27">
@@ -1305,16 +1305,16 @@
         <v>22.36133238808863</v>
       </c>
       <c r="G27" t="n">
-        <v>299.4902954101562</v>
+        <v>275.1606140136719</v>
       </c>
       <c r="H27" t="n">
-        <v>53.4025993347168</v>
+        <v>62.5030517578125</v>
       </c>
       <c r="I27" t="n">
-        <v>436.3900146484375</v>
+        <v>450.0474853515625</v>
       </c>
       <c r="J27" t="n">
-        <v>118.5759201049805</v>
+        <v>95.51995086669922</v>
       </c>
     </row>
     <row r="28">
@@ -1337,16 +1337,16 @@
         <v>22.25528267810615</v>
       </c>
       <c r="G28" t="n">
-        <v>311.8190002441406</v>
+        <v>288.8476867675781</v>
       </c>
       <c r="H28" t="n">
-        <v>52.30117797851562</v>
+        <v>60.17236328125</v>
       </c>
       <c r="I28" t="n">
-        <v>472.2697448730469</v>
+        <v>476.5457153320312</v>
       </c>
       <c r="J28" t="n">
-        <v>134.0514373779297</v>
+        <v>80.34266662597656</v>
       </c>
     </row>
     <row r="29">
@@ -1369,16 +1369,16 @@
         <v>22.11853696692908</v>
       </c>
       <c r="G29" t="n">
-        <v>337.06787109375</v>
+        <v>343.6195373535156</v>
       </c>
       <c r="H29" t="n">
-        <v>66.08566284179688</v>
+        <v>78.91205596923828</v>
       </c>
       <c r="I29" t="n">
-        <v>496.4170227050781</v>
+        <v>489.0774536132812</v>
       </c>
       <c r="J29" t="n">
-        <v>141.5957794189453</v>
+        <v>92.73246002197266</v>
       </c>
     </row>
     <row r="30">
@@ -1401,16 +1401,16 @@
         <v>21.13587239531939</v>
       </c>
       <c r="G30" t="n">
-        <v>433.2071228027344</v>
+        <v>456.2174377441406</v>
       </c>
       <c r="H30" t="n">
-        <v>82.73725128173828</v>
+        <v>134.1302947998047</v>
       </c>
       <c r="I30" t="n">
-        <v>466.9621887207031</v>
+        <v>480.6875</v>
       </c>
       <c r="J30" t="n">
-        <v>115.643310546875</v>
+        <v>107.3584518432617</v>
       </c>
     </row>
     <row r="31">
@@ -1433,16 +1433,16 @@
         <v>19.80061812897557</v>
       </c>
       <c r="G31" t="n">
-        <v>474.6048583984375</v>
+        <v>476.7214965820312</v>
       </c>
       <c r="H31" t="n">
-        <v>104.7374038696289</v>
+        <v>101.045036315918</v>
       </c>
       <c r="I31" t="n">
-        <v>421.4834594726562</v>
+        <v>440.8784790039062</v>
       </c>
       <c r="J31" t="n">
-        <v>126.3364639282227</v>
+        <v>176.9586791992188</v>
       </c>
     </row>
     <row r="32">
@@ -1465,16 +1465,16 @@
         <v>20.55168297688286</v>
       </c>
       <c r="G32" t="n">
-        <v>264.3713989257812</v>
+        <v>258.3377685546875</v>
       </c>
       <c r="H32" t="n">
-        <v>70.13089752197266</v>
+        <v>72.97477722167969</v>
       </c>
       <c r="I32" t="n">
-        <v>149.2114105224609</v>
+        <v>152.52978515625</v>
       </c>
       <c r="J32" t="n">
-        <v>109.0997009277344</v>
+        <v>105.7680969238281</v>
       </c>
     </row>
     <row r="33">
@@ -1497,16 +1497,16 @@
         <v>22.96934284445093</v>
       </c>
       <c r="G33" t="n">
-        <v>276.3873291015625</v>
+        <v>263.1911010742188</v>
       </c>
       <c r="H33" t="n">
-        <v>67.09988403320312</v>
+        <v>69.46816253662109</v>
       </c>
       <c r="I33" t="n">
-        <v>196.3837432861328</v>
+        <v>204.8262481689453</v>
       </c>
       <c r="J33" t="n">
-        <v>118.0967330932617</v>
+        <v>102.7522277832031</v>
       </c>
     </row>
     <row r="34">
@@ -1529,16 +1529,16 @@
         <v>24.40915250803127</v>
       </c>
       <c r="G34" t="n">
-        <v>280.8211975097656</v>
+        <v>265.2562255859375</v>
       </c>
       <c r="H34" t="n">
-        <v>66.99535369873047</v>
+        <v>67.73139953613281</v>
       </c>
       <c r="I34" t="n">
-        <v>245.0984649658203</v>
+        <v>263.4391784667969</v>
       </c>
       <c r="J34" t="n">
-        <v>123.5457077026367</v>
+        <v>113.7865524291992</v>
       </c>
     </row>
     <row r="35">
@@ -1561,16 +1561,16 @@
         <v>26.0811880993595</v>
       </c>
       <c r="G35" t="n">
-        <v>282.2796325683594</v>
+        <v>269.6495056152344</v>
       </c>
       <c r="H35" t="n">
-        <v>68.65621948242188</v>
+        <v>64.91373443603516</v>
       </c>
       <c r="I35" t="n">
-        <v>306.3406372070312</v>
+        <v>339.91357421875</v>
       </c>
       <c r="J35" t="n">
-        <v>133.8983306884766</v>
+        <v>110.2476119995117</v>
       </c>
     </row>
     <row r="36">
@@ -1593,16 +1593,16 @@
         <v>26.87614780904968</v>
       </c>
       <c r="G36" t="n">
-        <v>281.645751953125</v>
+        <v>267.571044921875</v>
       </c>
       <c r="H36" t="n">
-        <v>65.1875</v>
+        <v>64.63217163085938</v>
       </c>
       <c r="I36" t="n">
-        <v>381.0676574707031</v>
+        <v>412.3955078125</v>
       </c>
       <c r="J36" t="n">
-        <v>142.1669006347656</v>
+        <v>97.90041351318359</v>
       </c>
     </row>
     <row r="37">
@@ -1625,16 +1625,16 @@
         <v>27.16629873490772</v>
       </c>
       <c r="G37" t="n">
-        <v>284.4790954589844</v>
+        <v>271.5802307128906</v>
       </c>
       <c r="H37" t="n">
-        <v>62.53417205810547</v>
+        <v>61.20635223388672</v>
       </c>
       <c r="I37" t="n">
-        <v>427.2955322265625</v>
+        <v>450.7080078125</v>
       </c>
       <c r="J37" t="n">
-        <v>156.5808258056641</v>
+        <v>88.17440032958984</v>
       </c>
     </row>
     <row r="38">
@@ -1657,16 +1657,16 @@
         <v>27.25598473560972</v>
       </c>
       <c r="G38" t="n">
-        <v>320.7644653320312</v>
+        <v>329.6300964355469</v>
       </c>
       <c r="H38" t="n">
-        <v>74.81861877441406</v>
+        <v>70.95560455322266</v>
       </c>
       <c r="I38" t="n">
-        <v>467.076416015625</v>
+        <v>476.5833435058594</v>
       </c>
       <c r="J38" t="n">
-        <v>144.366943359375</v>
+        <v>100.1688537597656</v>
       </c>
     </row>
     <row r="39">
@@ -1689,16 +1689,16 @@
         <v>26.04628332899345</v>
       </c>
       <c r="G39" t="n">
-        <v>407.8136596679688</v>
+        <v>436.2676086425781</v>
       </c>
       <c r="H39" t="n">
-        <v>81.58827209472656</v>
+        <v>120.5187911987305</v>
       </c>
       <c r="I39" t="n">
-        <v>453.853759765625</v>
+        <v>469.7394714355469</v>
       </c>
       <c r="J39" t="n">
-        <v>118.0506820678711</v>
+        <v>128.7418823242188</v>
       </c>
     </row>
     <row r="40">
@@ -1721,16 +1721,16 @@
         <v>23.96978635149335</v>
       </c>
       <c r="G40" t="n">
-        <v>462.0910339355469</v>
+        <v>471.4245300292969</v>
       </c>
       <c r="H40" t="n">
-        <v>93.32478332519531</v>
+        <v>85.40936279296875</v>
       </c>
       <c r="I40" t="n">
-        <v>427.9904479980469</v>
+        <v>442.4229125976562</v>
       </c>
       <c r="J40" t="n">
-        <v>127.5391540527344</v>
+        <v>196.5325317382812</v>
       </c>
     </row>
     <row r="41">
@@ -1753,16 +1753,16 @@
         <v>25.6116837653232</v>
       </c>
       <c r="G41" t="n">
-        <v>268.9345703125</v>
+        <v>263.1344604492188</v>
       </c>
       <c r="H41" t="n">
-        <v>72.02475738525391</v>
+        <v>74.04730987548828</v>
       </c>
       <c r="I41" t="n">
-        <v>105.1967926025391</v>
+        <v>97.19486236572266</v>
       </c>
       <c r="J41" t="n">
-        <v>124.695686340332</v>
+        <v>138.8998413085938</v>
       </c>
     </row>
     <row r="42">
@@ -1785,16 +1785,16 @@
         <v>28.41067839248494</v>
       </c>
       <c r="G42" t="n">
-        <v>277.5604553222656</v>
+        <v>269.1231384277344</v>
       </c>
       <c r="H42" t="n">
-        <v>70.82530975341797</v>
+        <v>72.12303924560547</v>
       </c>
       <c r="I42" t="n">
-        <v>149.3107147216797</v>
+        <v>148.845458984375</v>
       </c>
       <c r="J42" t="n">
-        <v>131.5744018554688</v>
+        <v>118.5375137329102</v>
       </c>
     </row>
     <row r="43">
@@ -1817,16 +1817,16 @@
         <v>30.68040031937237</v>
       </c>
       <c r="G43" t="n">
-        <v>276.2946166992188</v>
+        <v>269.1238403320312</v>
       </c>
       <c r="H43" t="n">
-        <v>71.37660980224609</v>
+        <v>67.80188751220703</v>
       </c>
       <c r="I43" t="n">
-        <v>197.0010070800781</v>
+        <v>206.7925567626953</v>
       </c>
       <c r="J43" t="n">
-        <v>143.6362762451172</v>
+        <v>113.8865203857422</v>
       </c>
     </row>
     <row r="44">
@@ -1849,16 +1849,16 @@
         <v>32.34762367758118</v>
       </c>
       <c r="G44" t="n">
-        <v>276.5515747070312</v>
+        <v>270.11865234375</v>
       </c>
       <c r="H44" t="n">
-        <v>71.12187957763672</v>
+        <v>64.50175476074219</v>
       </c>
       <c r="I44" t="n">
-        <v>245.969482421875</v>
+        <v>281.218505859375</v>
       </c>
       <c r="J44" t="n">
-        <v>142.4181823730469</v>
+        <v>111.1920547485352</v>
       </c>
     </row>
     <row r="45">
@@ -1881,16 +1881,16 @@
         <v>33.26712421235609</v>
       </c>
       <c r="G45" t="n">
-        <v>282.24560546875</v>
+        <v>263.3959045410156</v>
       </c>
       <c r="H45" t="n">
-        <v>74.45831298828125</v>
+        <v>63.61181640625</v>
       </c>
       <c r="I45" t="n">
-        <v>311.1889953613281</v>
+        <v>357.3452758789062</v>
       </c>
       <c r="J45" t="n">
-        <v>146.3565216064453</v>
+        <v>101.340576171875</v>
       </c>
     </row>
     <row r="46">
@@ -1913,16 +1913,16 @@
         <v>33.39925272231932</v>
       </c>
       <c r="G46" t="n">
-        <v>280.3348693847656</v>
+        <v>276.534912109375</v>
       </c>
       <c r="H46" t="n">
-        <v>72.41445922851562</v>
+        <v>61.25919342041016</v>
       </c>
       <c r="I46" t="n">
-        <v>394.7074890136719</v>
+        <v>424.8244934082031</v>
       </c>
       <c r="J46" t="n">
-        <v>158.77099609375</v>
+        <v>102.0227355957031</v>
       </c>
     </row>
     <row r="47">
@@ -1945,16 +1945,16 @@
         <v>32.83385481517335</v>
       </c>
       <c r="G47" t="n">
-        <v>314.7548217773438</v>
+        <v>331.5105895996094</v>
       </c>
       <c r="H47" t="n">
-        <v>79.08623504638672</v>
+        <v>68.91555023193359</v>
       </c>
       <c r="I47" t="n">
-        <v>436.0009765625</v>
+        <v>450.522705078125</v>
       </c>
       <c r="J47" t="n">
-        <v>156.3247680664062</v>
+        <v>111.3771286010742</v>
       </c>
     </row>
     <row r="48">
@@ -1977,16 +1977,16 @@
         <v>31.22587875804939</v>
       </c>
       <c r="G48" t="n">
-        <v>398.1679382324219</v>
+        <v>444.6639709472656</v>
       </c>
       <c r="H48" t="n">
-        <v>81.30622100830078</v>
+        <v>102.8787994384766</v>
       </c>
       <c r="I48" t="n">
-        <v>453.4498901367188</v>
+        <v>458.1234436035156</v>
       </c>
       <c r="J48" t="n">
-        <v>131.1344757080078</v>
+        <v>134.8333587646484</v>
       </c>
     </row>
     <row r="49">
@@ -2009,16 +2009,16 @@
         <v>28.00050845971687</v>
       </c>
       <c r="G49" t="n">
-        <v>446.0341796875</v>
+        <v>467.1182861328125</v>
       </c>
       <c r="H49" t="n">
-        <v>89.50698089599609</v>
+        <v>80.58525085449219</v>
       </c>
       <c r="I49" t="n">
-        <v>437.2963562011719</v>
+        <v>437.3878173828125</v>
       </c>
       <c r="J49" t="n">
-        <v>135.6902313232422</v>
+        <v>211.7617340087891</v>
       </c>
     </row>
     <row r="50">
@@ -2041,16 +2041,16 @@
         <v>32.75859992753161</v>
       </c>
       <c r="G50" t="n">
-        <v>272.4358215332031</v>
+        <v>271.5944519042969</v>
       </c>
       <c r="H50" t="n">
-        <v>71.10978698730469</v>
+        <v>75.79305267333984</v>
       </c>
       <c r="I50" t="n">
-        <v>71.01012420654297</v>
+        <v>58.0926628112793</v>
       </c>
       <c r="J50" t="n">
-        <v>140.5815582275391</v>
+        <v>161.1495666503906</v>
       </c>
     </row>
     <row r="51">
@@ -2073,16 +2073,16 @@
         <v>35.60454595063857</v>
       </c>
       <c r="G51" t="n">
-        <v>278.8544921875</v>
+        <v>277.513671875</v>
       </c>
       <c r="H51" t="n">
-        <v>69.64152526855469</v>
+        <v>73.09215545654297</v>
       </c>
       <c r="I51" t="n">
-        <v>107.6042938232422</v>
+        <v>95.66189575195312</v>
       </c>
       <c r="J51" t="n">
-        <v>151.6378326416016</v>
+        <v>138.6614074707031</v>
       </c>
     </row>
     <row r="52">
@@ -2105,16 +2105,16 @@
         <v>38.13811789539464</v>
       </c>
       <c r="G52" t="n">
-        <v>287.1551208496094</v>
+        <v>283.3971862792969</v>
       </c>
       <c r="H52" t="n">
-        <v>70.22208404541016</v>
+        <v>72.12057495117188</v>
       </c>
       <c r="I52" t="n">
-        <v>142.7590484619141</v>
+        <v>141.2040100097656</v>
       </c>
       <c r="J52" t="n">
-        <v>156.9106903076172</v>
+        <v>130.5617218017578</v>
       </c>
     </row>
     <row r="53">
@@ -2137,16 +2137,16 @@
         <v>39.1380055059179</v>
       </c>
       <c r="G53" t="n">
-        <v>283.4786682128906</v>
+        <v>280.8638000488281</v>
       </c>
       <c r="H53" t="n">
-        <v>75.15473937988281</v>
+        <v>69.56655883789062</v>
       </c>
       <c r="I53" t="n">
-        <v>190.0349578857422</v>
+        <v>208.4720611572266</v>
       </c>
       <c r="J53" t="n">
-        <v>165.0508728027344</v>
+        <v>122.8463897705078</v>
       </c>
     </row>
     <row r="54">
@@ -2169,16 +2169,16 @@
         <v>40.17007780104868</v>
       </c>
       <c r="G54" t="n">
-        <v>291.3952331542969</v>
+        <v>271.096435546875</v>
       </c>
       <c r="H54" t="n">
-        <v>82.07369232177734</v>
+        <v>67.30704498291016</v>
       </c>
       <c r="I54" t="n">
-        <v>259.0089721679688</v>
+        <v>293.1495971679688</v>
       </c>
       <c r="J54" t="n">
-        <v>158.7160797119141</v>
+        <v>120.6313171386719</v>
       </c>
     </row>
     <row r="55">
@@ -2201,16 +2201,16 @@
         <v>40.31777520333784</v>
       </c>
       <c r="G55" t="n">
-        <v>287.1314086914062</v>
+        <v>287.0321655273438</v>
       </c>
       <c r="H55" t="n">
-        <v>80.41975402832031</v>
+        <v>68.25212860107422</v>
       </c>
       <c r="I55" t="n">
-        <v>346.1529541015625</v>
+        <v>357.9496765136719</v>
       </c>
       <c r="J55" t="n">
-        <v>164.6729278564453</v>
+        <v>126.3515167236328</v>
       </c>
     </row>
     <row r="56">
@@ -2233,16 +2233,16 @@
         <v>38.89328689858721</v>
       </c>
       <c r="G56" t="n">
-        <v>329.1343688964844</v>
+        <v>350.8090515136719</v>
       </c>
       <c r="H56" t="n">
-        <v>89.86906433105469</v>
+        <v>76.78535461425781</v>
       </c>
       <c r="I56" t="n">
-        <v>419.09765625</v>
+        <v>422.8066711425781</v>
       </c>
       <c r="J56" t="n">
-        <v>163.7725830078125</v>
+        <v>134.3029022216797</v>
       </c>
     </row>
     <row r="57">
@@ -2265,16 +2265,16 @@
         <v>36.03490394546852</v>
       </c>
       <c r="G57" t="n">
-        <v>390.6973266601562</v>
+        <v>452.6471862792969</v>
       </c>
       <c r="H57" t="n">
-        <v>80.79804992675781</v>
+        <v>87.73499298095703</v>
       </c>
       <c r="I57" t="n">
-        <v>447.2470703125</v>
+        <v>450.0902099609375</v>
       </c>
       <c r="J57" t="n">
-        <v>148.9158325195312</v>
+        <v>158.7273712158203</v>
       </c>
     </row>
     <row r="58">
@@ -2297,16 +2297,16 @@
         <v>33.0417017672229</v>
       </c>
       <c r="G58" t="n">
-        <v>426.3187866210938</v>
+        <v>467.6844787597656</v>
       </c>
       <c r="H58" t="n">
-        <v>86.20563507080078</v>
+        <v>77.71743011474609</v>
       </c>
       <c r="I58" t="n">
-        <v>454.6096801757812</v>
+        <v>447.8177185058594</v>
       </c>
       <c r="J58" t="n">
-        <v>142.9835968017578</v>
+        <v>242.2215728759766</v>
       </c>
     </row>
     <row r="59">
@@ -2329,16 +2329,16 @@
         <v>43.98768298598323</v>
       </c>
       <c r="G59" t="n">
-        <v>287.4766540527344</v>
+        <v>291.7918090820312</v>
       </c>
       <c r="H59" t="n">
-        <v>70.85646057128906</v>
+        <v>74.15164947509766</v>
       </c>
       <c r="I59" t="n">
-        <v>51.25484848022461</v>
+        <v>33.10234069824219</v>
       </c>
       <c r="J59" t="n">
-        <v>172.0311889648438</v>
+        <v>163.1244812011719</v>
       </c>
     </row>
     <row r="60">
@@ -2361,16 +2361,16 @@
         <v>45.7006317110727</v>
       </c>
       <c r="G60" t="n">
-        <v>291.5317687988281</v>
+        <v>296.5645446777344</v>
       </c>
       <c r="H60" t="n">
-        <v>78.44671630859375</v>
+        <v>76.27837371826172</v>
       </c>
       <c r="I60" t="n">
-        <v>91.37358856201172</v>
+        <v>84.71736907958984</v>
       </c>
       <c r="J60" t="n">
-        <v>176.6608276367188</v>
+        <v>150.6352691650391</v>
       </c>
     </row>
     <row r="61">
@@ -2393,16 +2393,16 @@
         <v>46.67965674781412</v>
       </c>
       <c r="G61" t="n">
-        <v>290.9271240234375</v>
+        <v>293.8177490234375</v>
       </c>
       <c r="H61" t="n">
-        <v>84.03884124755859</v>
+        <v>71.78463745117188</v>
       </c>
       <c r="I61" t="n">
-        <v>150.9181060791016</v>
+        <v>161.8851165771484</v>
       </c>
       <c r="J61" t="n">
-        <v>180.1957092285156</v>
+        <v>137.4063720703125</v>
       </c>
     </row>
     <row r="62">
@@ -2425,16 +2425,16 @@
         <v>47.53914448671719</v>
       </c>
       <c r="G62" t="n">
-        <v>302.4706726074219</v>
+        <v>296.2300720214844</v>
       </c>
       <c r="H62" t="n">
-        <v>91.88163757324219</v>
+        <v>73.76747894287109</v>
       </c>
       <c r="I62" t="n">
-        <v>203.6657409667969</v>
+        <v>227.6882019042969</v>
       </c>
       <c r="J62" t="n">
-        <v>181.2110290527344</v>
+        <v>131.3347778320312</v>
       </c>
     </row>
     <row r="63">
@@ -2457,16 +2457,16 @@
         <v>47.07121651777462</v>
       </c>
       <c r="G63" t="n">
-        <v>302.7492370605469</v>
+        <v>309.7604675292969</v>
       </c>
       <c r="H63" t="n">
-        <v>94.63709259033203</v>
+        <v>80.37012481689453</v>
       </c>
       <c r="I63" t="n">
-        <v>301.0133361816406</v>
+        <v>318.4091491699219</v>
       </c>
       <c r="J63" t="n">
-        <v>176.6553649902344</v>
+        <v>139.0104522705078</v>
       </c>
     </row>
     <row r="64">
@@ -2489,16 +2489,16 @@
         <v>45.67156598130153</v>
       </c>
       <c r="G64" t="n">
-        <v>340.8201904296875</v>
+        <v>373.8255310058594</v>
       </c>
       <c r="H64" t="n">
-        <v>100.0940551757812</v>
+        <v>85.33420562744141</v>
       </c>
       <c r="I64" t="n">
-        <v>392.6642150878906</v>
+        <v>389.181884765625</v>
       </c>
       <c r="J64" t="n">
-        <v>179.9140777587891</v>
+        <v>149.0763092041016</v>
       </c>
     </row>
     <row r="65">
@@ -2521,16 +2521,16 @@
         <v>42.51104340916319</v>
       </c>
       <c r="G65" t="n">
-        <v>387.2219848632812</v>
+        <v>459.5811462402344</v>
       </c>
       <c r="H65" t="n">
-        <v>83.69736480712891</v>
+        <v>78.51113891601562</v>
       </c>
       <c r="I65" t="n">
-        <v>428.8148193359375</v>
+        <v>424.0102844238281</v>
       </c>
       <c r="J65" t="n">
-        <v>166.329345703125</v>
+        <v>172.9193420410156</v>
       </c>
     </row>
     <row r="66">
@@ -2553,16 +2553,16 @@
         <v>54.37577254606605</v>
       </c>
       <c r="G66" t="n">
-        <v>305.6134948730469</v>
+        <v>311.2818603515625</v>
       </c>
       <c r="H66" t="n">
-        <v>80.53399658203125</v>
+        <v>73.02118682861328</v>
       </c>
       <c r="I66" t="n">
-        <v>46.25156784057617</v>
+        <v>12.93168544769287</v>
       </c>
       <c r="J66" t="n">
-        <v>185.5792694091797</v>
+        <v>169.5830078125</v>
       </c>
     </row>
     <row r="67">
@@ -2585,16 +2585,16 @@
         <v>55.07062752917076</v>
       </c>
       <c r="G67" t="n">
-        <v>309.184326171875</v>
+        <v>315.4347534179688</v>
       </c>
       <c r="H67" t="n">
-        <v>92.77183532714844</v>
+        <v>75.13963317871094</v>
       </c>
       <c r="I67" t="n">
-        <v>93.95011901855469</v>
+        <v>89.26104736328125</v>
       </c>
       <c r="J67" t="n">
-        <v>186.7626190185547</v>
+        <v>165.12841796875</v>
       </c>
     </row>
     <row r="68">
@@ -2617,16 +2617,16 @@
         <v>54.82432856758766</v>
       </c>
       <c r="G68" t="n">
-        <v>317.893310546875</v>
+        <v>320.1806335449219</v>
       </c>
       <c r="H68" t="n">
-        <v>101.8115768432617</v>
+        <v>78.87081146240234</v>
       </c>
       <c r="I68" t="n">
-        <v>154.34326171875</v>
+        <v>169.1470642089844</v>
       </c>
       <c r="J68" t="n">
-        <v>185.9801483154297</v>
+        <v>155.41552734375</v>
       </c>
     </row>
     <row r="69">
@@ -2649,16 +2649,16 @@
         <v>54.18769809434324</v>
       </c>
       <c r="G69" t="n">
-        <v>330.4185180664062</v>
+        <v>338.6732177734375</v>
       </c>
       <c r="H69" t="n">
-        <v>112.240348815918</v>
+        <v>89.09615325927734</v>
       </c>
       <c r="I69" t="n">
-        <v>252.7033538818359</v>
+        <v>267.1870422363281</v>
       </c>
       <c r="J69" t="n">
-        <v>200.6327056884766</v>
+        <v>145.1410217285156</v>
       </c>
     </row>
     <row r="70">
@@ -2681,16 +2681,16 @@
         <v>51.347187815424</v>
       </c>
       <c r="G70" t="n">
-        <v>350.1421813964844</v>
+        <v>393.7193298339844</v>
       </c>
       <c r="H70" t="n">
-        <v>107.9496383666992</v>
+        <v>91.16325378417969</v>
       </c>
       <c r="I70" t="n">
-        <v>357.8206481933594</v>
+        <v>345.8571166992188</v>
       </c>
       <c r="J70" t="n">
-        <v>200.1489868164062</v>
+        <v>163.3603210449219</v>
       </c>
     </row>
   </sheetData>
